--- a/Data/Transitions/19311932Translation.xlsx
+++ b/Data/Transitions/19311932Translation.xlsx
@@ -31,7 +31,7 @@
     <t>{2.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.9837473879730672}</t>
+    <t>{3.0: 0.9830426356589147}</t>
   </si>
   <si>
     <t>{4.0: 1.0}</t>
@@ -73,7 +73,7 @@
     <t>{16.0: 1.0}</t>
   </si>
   <si>
-    <t>{17.0: 0.989010989010989}</t>
+    <t>{17.0: 0.9890756302521009}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
@@ -151,7 +151,7 @@
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.9985699985699986}</t>
+    <t>{73.0: 0.9985652797704447}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
@@ -256,10 +256,10 @@
     <t>{108.0: 1.0}</t>
   </si>
   <si>
-    <t>{109.0: 1.0, 110.0: 0.0231353591160221}</t>
-  </si>
-  <si>
-    <t>{110.0: 0.976864640883978}</t>
+    <t>{109.0: 1.0, 110.0: 0.02275042444821732}</t>
+  </si>
+  <si>
+    <t>{110.0: 0.9772495755517827}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
@@ -328,7 +328,7 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.7488291035834876}</t>
+    <t>{171.0: 0.7516424340333872}</t>
   </si>
   <si>
     <t>{172.0: 1.0}</t>
@@ -379,7 +379,7 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 1.0, 857.0: 0.00538036167986848}</t>
+    <t>{204.0: 1.0, 857.0: 0.005378753922008068}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -418,7 +418,7 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 1.0, 409.0: 0.0070047205725597686}</t>
+    <t>{218.0: 1.0, 409.0: 0.006847275974992557}</t>
   </si>
   <si>
     <t>{219.0: 1.0}</t>
@@ -481,6 +481,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -547,7 +550,7 @@
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{267.0: 0.9917627677100495}</t>
+    <t>{267.0: 0.9914588315681585}</t>
   </si>
   <si>
     <t>{268.0: 1.0}</t>
@@ -607,7 +610,7 @@
     <t>{287.0: 1.0}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069}</t>
+    <t>{288.0: 0.9978511952726296}</t>
   </si>
   <si>
     <t>{289.0: 1.0}</t>
@@ -700,9 +703,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -724,10 +724,10 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.6840894291295854}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.30840026047319297}</t>
+    <t>{404.0: 0.6812806587245971}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.31114225648213034}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -739,7 +739,7 @@
     <t>{408.0: 1.0}</t>
   </si>
   <si>
-    <t>{409.0: 0.9929952794274403}</t>
+    <t>{409.0: 0.9931527240250074}</t>
   </si>
   <si>
     <t>{410.0: 1.0}</t>
@@ -763,13 +763,13 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.9961880559085133}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.8722677595628415}</t>
+    <t>{418.0: 0.996164500319625}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.87084743421507}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
@@ -793,10 +793,10 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.29745909272316085}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.7025409072768392}</t>
+    <t>{431.0: 0.2216275151154723}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.7783724848845277}</t>
   </si>
   <si>
     <t>{432.0: 1.0}</t>
@@ -1027,7 +1027,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 1.0, 728.0: 0.008790623335109217}</t>
+    <t>{580.0: 1.0, 728.0: 0.008727849775191749}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
@@ -1141,7 +1141,7 @@
     <t>{618.0: 1.0}</t>
   </si>
   <si>
-    <t>{619.0: 1.0, 887.0: 0.010772210118615348}</t>
+    <t>{619.0: 1.0, 887.0: 0.010616724323034713}</t>
   </si>
   <si>
     <t>{620.0: 1.0}</t>
@@ -1264,7 +1264,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9964349376114082}</t>
+    <t>{702.0: 0.9964323938637174}</t>
   </si>
   <si>
     <t>{703.0: 1.0}</t>
@@ -1282,7 +1282,7 @@
     <t>{707.0: 1.0}</t>
   </si>
   <si>
-    <t>{728.0: 0.9912093766648907}</t>
+    <t>{728.0: 0.9912721502248083}</t>
   </si>
   <si>
     <t>{729.0: 1.0}</t>
@@ -1300,7 +1300,7 @@
     <t>{733.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 1.0, 73.0: 0.00143000143000143, 888.0: 0.010693069306930694}</t>
+    <t>{734.0: 1.0, 73.0: 0.0014347202295552368, 888.0: 0.010686720759944587}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
@@ -1318,7 +1318,7 @@
     <t>{739.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.16773074800977378}</t>
+    <t>{740.0: 1.0, 789.0: 0.1677175283732661}</t>
   </si>
   <si>
     <t>{741.0: 1.0}</t>
@@ -1456,7 +1456,7 @@
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.8322692519902262}</t>
+    <t>{789.0: 0.832282471626734}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -1537,7 +1537,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9946196383201316}</t>
+    <t>{857.0: 0.994621246077992}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1564,10 +1564,10 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.9892277898813846, 267.0: 0.008237232289950576}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.9893069306930693}</t>
+    <t>{887.0: 0.9893832756769653, 267.0: 0.008541168431841476}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.9893132792400554}</t>
   </si>
   <si>
     <t>{889.0: 1.0}</t>
@@ -1621,7 +1621,7 @@
     <t>{914.0: 1.0}</t>
   </si>
   <si>
-    <t>{915.0: 1.0, 171.0: 0.25117089641651236, 420.0: 0.12773224043715847}</t>
+    <t>{915.0: 1.0, 171.0: 0.24835756596661282, 420.0: 0.1291525657849299}</t>
   </si>
   <si>
     <t>{916.0: 1.0}</t>
@@ -1642,7 +1642,7 @@
     <t>{921.0: 1.0}</t>
   </si>
   <si>
-    <t>{922.0: 0.9988558352402745}</t>
+    <t>{922.0: 0.99881995954147}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1660,7 +1660,7 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{928.0: 1.0, 3.0: 0.0162526120269329, 418.0: 0.0038119440914866584, 922.0: 0.0011441647597254005}</t>
+    <t>{928.0: 1.0, 3.0: 0.01695736434108527, 418.0: 0.0038354996803750267, 922.0: 0.0011800404585300068}</t>
   </si>
   <si>
     <t>{929.0: 1.0}</t>
@@ -1675,7 +1675,7 @@
     <t>{932.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 702.0: 0.0035650623885918}</t>
+    <t>{933.0: 1.0, 702.0: 0.0035676061362825543}</t>
   </si>
   <si>
     <t>{934.0: 1.0}</t>
@@ -1753,7 +1753,7 @@
     <t>{991.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.995576199955762}</t>
+    <t>{992.0: 0.9955840141311548}</t>
   </si>
   <si>
     <t>{3.0: 1.0}</t>
@@ -1774,10 +1774,10 @@
     <t>{171.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9946148092744952, 857.0: 0.005385190725504862}</t>
-  </si>
-  <si>
-    <t>{218.0: 0.9893097838717174, 409.0: 0.010690216128282594}</t>
+    <t>{204.0: 0.9946682464454977, 857.0: 0.00533175355450237}</t>
+  </si>
+  <si>
+    <t>{218.0: 0.9891098484848485, 409.0: 0.010890151515151516}</t>
   </si>
   <si>
     <t>{267.0: 1.0}</t>
@@ -1789,7 +1789,7 @@
     <t>{404.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.3656576480042861, 404.0: 0.6343423519957139}</t>
+    <t>{405.0: 0.35768535262206147, 404.0: 0.6423146473779385}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -1798,7 +1798,7 @@
     <t>{418.0: 1.0}</t>
   </si>
   <si>
-    <t>{419.0: 0.9852104664391353, 17.0: 0.01478953356086462}</t>
+    <t>{419.0: 0.9852607709750567, 17.0: 0.01473922902494331}</t>
   </si>
   <si>
     <t>{420.0: 1.0}</t>
@@ -1807,10 +1807,10 @@
     <t>{431.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9969279463787004, 728.0: 0.0030720536212995716}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.986706497386109, 887.0: 0.013293502613890963}</t>
+    <t>{580.0: 0.9969350794093063, 728.0: 0.0030649205906937865}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9866666666666667, 887.0: 0.013333333333333334}</t>
   </si>
   <si>
     <t>{702.0: 1.0}</t>
@@ -1819,7 +1819,7 @@
     <t>{728.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 0.9638009049773756, 73.0: 0.005656108597285068, 888.0: 0.030542986425339366}</t>
+    <t>{734.0: 0.9645232815964523, 73.0: 0.005543237250554324, 888.0: 0.02993348115299335}</t>
   </si>
   <si>
     <t>{740.0: 0.701123595505618, 789.0: 0.298876404494382}</t>
@@ -1831,22 +1831,22 @@
     <t>{857.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.9969504757257868, 267.0: 0.003049524274213223}</t>
+    <t>{887.0: 0.9969948311095084, 267.0: 0.0030051688904916456}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
   </si>
   <si>
-    <t>{915.0: 0.5396825396825397, 171.0: 0.25418871252204583, 420.0: 0.20612874779541446}</t>
+    <t>{915.0: 0.5481497511361177, 171.0: 0.2495130924042415, 420.0: 0.20233715645964076}</t>
   </si>
   <si>
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{928.0: 0.9650092081031307, 3.0: 0.02578268876611418, 418.0: 0.0066298342541436465, 922.0: 0.002578268876611418}</t>
-  </si>
-  <si>
-    <t>{933.0: 0.9937323722970856, 702.0: 0.006267627702914447}</t>
+    <t>{928.0: 0.9648148148148148, 3.0: 0.025925925925925925, 418.0: 0.006666666666666667, 922.0: 0.0025925925925925925}</t>
+  </si>
+  <si>
+    <t>{933.0: 0.9937616968184654, 702.0: 0.006238303181534623}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3931,7 +3931,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4008,7 +4008,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4030,7 +4030,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4096,7 +4096,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4118,7 +4118,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4129,7 +4129,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4140,29 +4140,29 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>588</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>178</v>
+        <v>588</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4184,7 +4184,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4206,7 +4206,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4283,7 +4283,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4316,7 +4316,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4360,29 +4360,29 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>589</v>
+        <v>197</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>198</v>
+        <v>589</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4404,7 +4404,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4448,7 +4448,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4459,7 +4459,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4470,7 +4470,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4514,7 +4514,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4558,7 +4558,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4569,7 +4569,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4613,7 +4613,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4668,7 +4668,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4701,7 +4701,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
